--- a/biology/Zoologie/Agreste_crétois/Agreste_crétois.xlsx
+++ b/biology/Zoologie/Agreste_crétois/Agreste_crétois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agreste_cr%C3%A9tois</t>
+          <t>Agreste_crétois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hipparchia cretica
 L'Agreste crétois (Hipparchia cretica) est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Hipparchia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agreste_cr%C3%A9tois</t>
+          <t>Agreste_crétois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été nommé Hipparchia cretica par Hans Rebel en 1916.
-Synonymes : Satyrus cretica Rebel, 1916[1].
-Noms vernaculaires
-L'Agreste crétois se nomme Cretan Grayling en anglais.
+Synonymes : Satyrus cretica Rebel, 1916.
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agreste_cr%C3%A9tois</t>
+          <t>Agreste_crétois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Agreste crétois est de couleur marron clair, avec une bande submarginale orange, deux discrets ocelles aux antérieures dont l'un à l'apex, un petit ocelle anal aux postérieures, le tout bordé d'une frange entrecoupée. Le mâle présente une large tache androconiale. 
-Le revers des antérieures est orange avec les deux ocelles et une bordure gris beige marbrée, les postérieures sont du même gris beige marbré coupées d'une ligne blanche sinueuse.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste crétois se nomme Cretan Grayling en anglais.
 </t>
         </is>
       </c>
@@ -560,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agreste_cr%C3%A9tois</t>
+          <t>Agreste_crétois</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,13 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Agreste crétois vole en une génération entre mi-mai et mi-août[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste crétois est de couleur marron clair, avec une bande submarginale orange, deux discrets ocelles aux antérieures dont l'un à l'apex, un petit ocelle anal aux postérieures, le tout bordé d'une frange entrecoupée. Le mâle présente une large tache androconiale. 
+Le revers des antérieures est orange avec les deux ocelles et une bordure gris beige marbrée, les postérieures sont du même gris beige marbré coupées d'une ligne blanche sinueuse.
 </t>
         </is>
       </c>
@@ -592,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Agreste_cr%C3%A9tois</t>
+          <t>Agreste_crétois</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,15 +626,89 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste crétois vole en une génération entre mi-mai et mi-août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agreste_crétois</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_cr%C3%A9tois</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'Agreste crétois est présent uniquement en Crète[2].
-Biotope
-Il réside dans des milieux broussailleux, des bois clairs ou des jardins.
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste crétois est présent uniquement en Crète.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agreste_crétois</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_cr%C3%A9tois</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des milieux broussailleux, des bois clairs ou des jardins.
+</t>
         </is>
       </c>
     </row>
